--- a/public/data_example/multilabel_text_classification.xlsx
+++ b/public/data_example/multilabel_text_classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lap Top\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Lab ISE\eval-res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604FBD68-EE4B-484C-A02C-DCEB81CFD612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5627A4-3D8A-43A3-9B6E-ED78947DFD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55F53C77-863D-44CD-8B98-491013977299}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{159108F8-8C65-4D16-9837-423116F2A99D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>"UET is a member of VNU"</t>
-  </si>
-  <si>
-    <t>uet; vnu</t>
-  </si>
-  <si>
-    <t>"ULIS is a great university"</t>
-  </si>
-  <si>
-    <t>ulis; vnu</t>
-  </si>
-  <si>
-    <t>"UEB has many majors"</t>
-  </si>
-  <si>
-    <t>ueb; vnu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Movie Summary</t>
+  </si>
+  <si>
+    <t>Genres</t>
+  </si>
+  <si>
+    <t>A superhero fights to save the world from a deadly threat</t>
+  </si>
+  <si>
+    <t>A heartwarming tale of friendship and romance</t>
+  </si>
+  <si>
+    <t>Action; Sci-Fi</t>
+  </si>
+  <si>
+    <t>Romance; Comedy; Drama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,17 +58,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,33 +82,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,52 +402,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026C11E3-D8FF-41BE-AACB-FAFEF1481D84}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCE6FC8-3228-4C8E-A38C-4BC71FD0AF30}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>